--- a/校外競賽獲獎.xlsx
+++ b/校外競賽獲獎.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1302" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1713" uniqueCount="426">
   <si>
     <t>單位別</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1116,13 +1116,543 @@
   </si>
   <si>
     <t>張晴茹</t>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B05 輪型機器人橫衝直撞戰高中高職A組</t>
+  </si>
+  <si>
+    <t>余欣娣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李沛瑜</t>
+  </si>
+  <si>
+    <t>李沛瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳秉樺</t>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B06 輪型機器人走創意軌道大專院校A組</t>
+  </si>
+  <si>
+    <t>林恩妤</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陳瑩蓁</t>
+  </si>
+  <si>
+    <t>吳書嫻</t>
+  </si>
+  <si>
+    <t>洪羽白</t>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃堃巽</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陳聖恩</t>
+  </si>
+  <si>
+    <t>林奕廷</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝皓宇  </t>
+  </si>
+  <si>
+    <t>顏葦慈</t>
+  </si>
+  <si>
+    <t>黃袖雅</t>
+  </si>
+  <si>
+    <t>李超翔</t>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B06 輪型機器人走創意軌道高中高職A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B06 輪型機器人走創意軌道高中高職A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳姸廷</t>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B06 輪型機器人走創意軌道高中高職A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B06 輪型機器人走創意軌道高中高職A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">李品誼 </t>
+  </si>
+  <si>
+    <t>蔡佳璇</t>
+  </si>
+  <si>
+    <t>陳詠恩</t>
+  </si>
+  <si>
+    <t>林容榛</t>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陳詠恩 </t>
+  </si>
+  <si>
+    <t>李品誼</t>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 吳秉樺</t>
+  </si>
+  <si>
+    <t>第二名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024第35屆AERC亞洲機器人運動競技大賽B07 動力機械飛車挑戰無限組A組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李軒承</t>
+  </si>
+  <si>
+    <t>呂崇煒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">謝昇達 </t>
+  </si>
+  <si>
+    <t>黃偉翔</t>
+  </si>
+  <si>
+    <t>黃榆雅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陳沁佑  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 黃聖翔</t>
+  </si>
+  <si>
+    <t>楊恩愷</t>
+  </si>
+  <si>
+    <t>謝皓宇</t>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區團體組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區團體組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區團體組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區團體組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區團體組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尤思婷</t>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區個人組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>113資訊月資訊應用技能競賽數位內容軟體應用大賽商用數據分析北區個人組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Excel 2016 專業級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Excel 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-PowerPoint 2016 專業級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-PowerPoint 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-PowerPoint 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-PowerPoint 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Word 2016 專業級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Word 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Word 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧品卉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張益誠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳湛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅勻辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃子杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃子杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃榆雅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林容榛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馬嫚蔆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳宣儒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林韋辰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第八名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-Word 2016 專業級高中職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-(EAST-VOC)英語詞彙能力檢測大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-(EAST-VOC)英語詞彙能力檢測大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-(EAST-VOC)英語詞彙能力檢測大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林永承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃安瑞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方冠霖</t>
+  </si>
+  <si>
+    <t>林群展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃偉翔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪羽白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張琬稜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳瑩蓁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳冠齊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饒凱婷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盧品卉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳瑩蓁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林恩妤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-程式素養(Python)大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-雲端APP程式設計 ( APP Inventor )大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-雲端APP程式設計 ( APP Inventor )大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-資訊安全大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-資訊安全大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-資訊安全大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-電子商務標準級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-電子商務標準級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-電子商務標準級高中高職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-電子商務標準級高中高職組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-網際網路標準級準級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-網際網路標準級準級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024年全民e化資訊運動會(秋季賽)-網際網路標準級準級大專社會組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曾薇皊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>葉芃孝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林奕廷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>張晏華</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>許睿哲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡佳妤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吳書嫻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔡侑蓁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃瑋晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第九名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第十名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第五名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>優勝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第六名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第七名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1141,6 +1671,12 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1166,27 +1702,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1195,45 +1716,42 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1571,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1628,4478 +2146,5825 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="A258" sqref="A258"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5546875" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="63.5546875" style="1"/>
-    <col min="9" max="9" width="65.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="63.5546875" style="1"/>
+    <col min="1" max="2" width="10.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="8.21875" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="63.5546875" style="9"/>
+    <col min="9" max="9" width="65.44140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="63.5546875" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="E61" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="E73" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+    <row r="76" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D77" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E77" s="1" t="s">
+      <c r="D77" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E78" s="1" t="s">
+      <c r="D78" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C79" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D79" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E79" s="1" t="s">
+      <c r="D79" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D80" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E80" s="1" t="s">
+      <c r="D80" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C81" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E81" s="1" t="s">
+      <c r="D81" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="E82" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" s="1" t="s">
+      <c r="A84" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B85" s="1" t="s">
+      <c r="A85" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B86" s="1" t="s">
+      <c r="A86" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="E86" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B88" s="1" t="s">
+      <c r="A88" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="E88" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="1" t="s">
+      <c r="A89" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B90" s="1" t="s">
+      <c r="A90" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="E90" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B91" s="1" t="s">
+      <c r="A91" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B92" s="1" t="s">
+      <c r="A92" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B93" s="1" t="s">
+      <c r="A93" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="E93" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B94" s="1" t="s">
+      <c r="A94" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="E94" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B95" s="1" t="s">
+      <c r="A95" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B96" s="1" t="s">
+      <c r="A96" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="A97" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B98" s="1" t="s">
+      <c r="A98" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B99" s="1" t="s">
+      <c r="A99" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B100" s="1" t="s">
+      <c r="A100" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B101" s="1" t="s">
+      <c r="A101" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B102" s="1" t="s">
+      <c r="A102" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="E102" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B103" s="1" t="s">
+      <c r="A103" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" s="1" t="s">
+      <c r="A104" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D104" s="2" t="s">
+      <c r="D104" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B105" s="1" t="s">
+      <c r="A105" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B106" s="1" t="s">
+      <c r="A106" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B107" s="1" t="s">
+      <c r="A107" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D107" s="2" t="s">
+      <c r="D107" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="E107" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B108" s="1" t="s">
+      <c r="A108" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="E108" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B109" s="1" t="s">
+      <c r="A109" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="D109" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="E109" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="1" t="s">
+      <c r="A110" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C110" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D110" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="E110" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B111" s="1" t="s">
+      <c r="A111" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="D111" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="E111" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B112" s="1" t="s">
+      <c r="A112" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="D112" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="E112" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="1" t="s">
+      <c r="A113" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="1" t="s">
+      <c r="D113" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B114" s="1" t="s">
+      <c r="A114" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="1" t="s">
+      <c r="D114" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="1" t="s">
+      <c r="A115" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D115" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E115" s="1" t="s">
+      <c r="D115" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B116" s="1" t="s">
+      <c r="A116" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D116" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E116" s="1" t="s">
+      <c r="D116" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117" s="1" t="s">
+      <c r="A117" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E117" s="1" t="s">
+      <c r="D117" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B118" s="1" t="s">
+      <c r="A118" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D118" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E118" s="1" t="s">
+      <c r="D118" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A119" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B119" s="1" t="s">
+      <c r="A119" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E119" s="1" t="s">
+      <c r="D119" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A120" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B120" s="1" t="s">
+      <c r="A120" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D120" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E120" s="1" t="s">
+      <c r="D120" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A121" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B121" s="1" t="s">
+      <c r="A121" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C121" s="5" t="s">
+      <c r="C121" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D121" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E121" s="1" t="s">
+      <c r="D121" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B122" s="1" t="s">
+      <c r="A122" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D122" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E122" s="1" t="s">
+      <c r="D122" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E122" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A123" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B123" s="1" t="s">
+      <c r="A123" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E123" s="1" t="s">
+      <c r="D123" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A124" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B124" s="1" t="s">
+      <c r="A124" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D124" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="E124" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A125" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B125" s="1" t="s">
+      <c r="A125" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E125" s="1" t="s">
+      <c r="D125" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A126" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B126" s="1" t="s">
+      <c r="A126" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E126" s="1" t="s">
+      <c r="D126" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A127" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B127" s="1" t="s">
+      <c r="A127" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E127" s="1" t="s">
+      <c r="D127" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E127" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A128" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B128" s="1" t="s">
+      <c r="A128" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B128" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D128" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E128" s="1" t="s">
+      <c r="D128" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E128" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A129" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B129" s="1" t="s">
+      <c r="A129" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B129" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D129" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E129" s="1" t="s">
+      <c r="D129" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A130" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B130" s="1" t="s">
+      <c r="A130" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B130" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E130" s="1" t="s">
+      <c r="D130" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E130" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A131" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B131" s="1" t="s">
+      <c r="A131" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C131" s="5" t="s">
+      <c r="C131" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E131" s="1" t="s">
+      <c r="D131" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A132" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B132" s="1" t="s">
+      <c r="A132" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B132" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C132" s="5" t="s">
+      <c r="C132" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D132" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E132" s="1" t="s">
+      <c r="D132" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A133" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B133" s="1" t="s">
+      <c r="A133" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E133" s="1" t="s">
+      <c r="D133" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A134" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B134" s="1" t="s">
+      <c r="A134" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E134" s="1" t="s">
+      <c r="D134" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A135" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B135" s="1" t="s">
+      <c r="A135" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B135" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D135" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E135" s="1" t="s">
+      <c r="D135" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E135" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A136" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B136" s="1" t="s">
+      <c r="A136" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B136" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E136" s="1" t="s">
+      <c r="D136" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A137" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B137" s="1" t="s">
+      <c r="A137" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="D137" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="E137" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A138" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B138" s="1" t="s">
+      <c r="A138" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B138" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="D138" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="E138" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B139" s="1" t="s">
+      <c r="A139" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D139" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E139" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B140" s="1" t="s">
+      <c r="A140" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="D140" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="E140" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A141" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B141" s="1" t="s">
+      <c r="A141" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D141" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E141" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A142" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B142" s="1" t="s">
+      <c r="A142" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D142" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E142" s="1" t="s">
+      <c r="D142" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E142" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B143" s="1" t="s">
+      <c r="A143" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E143" s="1" t="s">
+      <c r="D143" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E143" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B144" s="1" t="s">
+      <c r="A144" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E144" s="1" t="s">
+      <c r="D144" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E144" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A145" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B145" s="1" t="s">
+      <c r="A145" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E145" s="1" t="s">
+      <c r="D145" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E145" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A146" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B146" s="1" t="s">
+      <c r="A146" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B146" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E146" s="1" t="s">
+      <c r="D146" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E146" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A147" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B147" s="1" t="s">
+      <c r="A147" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E147" s="1" t="s">
+      <c r="D147" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E147" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A148" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B148" s="1" t="s">
+      <c r="A148" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E148" s="1" t="s">
+      <c r="D148" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E148" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B149" s="1" t="s">
+      <c r="A149" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E149" s="1" t="s">
+      <c r="D149" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E149" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B150" s="1" t="s">
+      <c r="A150" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E150" s="1" t="s">
+      <c r="D150" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E150" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B151" s="1" t="s">
+      <c r="A151" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B151" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C151" s="5" t="s">
+      <c r="C151" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D151" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E151" s="1" t="s">
+      <c r="D151" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E151" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B152" s="1" t="s">
+      <c r="A152" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B152" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E152" s="1" t="s">
+      <c r="D152" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E152" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B153" s="1" t="s">
+      <c r="A153" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E153" s="1" t="s">
+      <c r="D153" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E153" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B154" s="1" t="s">
+      <c r="A154" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C154" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E154" s="1" t="s">
+      <c r="D154" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E154" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B155" s="1" t="s">
+      <c r="A155" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B155" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C155" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E155" s="1" t="s">
+      <c r="D155" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E155" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B156" s="1" t="s">
+      <c r="A156" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B156" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D156" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E156" s="1" t="s">
+      <c r="D156" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E156" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B157" s="1" t="s">
+      <c r="A157" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B157" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B158" s="1" t="s">
+      <c r="A158" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B158" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C158" s="5" t="s">
+      <c r="C158" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B159" s="1" t="s">
+      <c r="A159" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B159" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B160" s="1" t="s">
+      <c r="A160" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B160" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B161" s="1" t="s">
+      <c r="A161" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B161" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C161" s="5" t="s">
+      <c r="C161" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B162" s="1" t="s">
+      <c r="A162" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="A163" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B163" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B164" s="8" t="s">
+      <c r="E163" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B164" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C164" s="9" t="s">
+      <c r="C164" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A165" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B165" s="1" t="s">
+      <c r="A165" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B165" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C165" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A166" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B166" s="1" t="s">
+      <c r="A166" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B166" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B167" s="1" t="s">
+      <c r="A167" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B168" s="1" t="s">
+      <c r="A168" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B168" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="E168" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A169" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B169" s="1" t="s">
+      <c r="A169" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B169" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C169" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A170" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="A170" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B170" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C170" s="5" t="s">
+      <c r="C170" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A171" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B171" s="1" t="s">
+      <c r="A171" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B171" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C171" s="5" t="s">
+      <c r="C171" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A172" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B172" s="1" t="s">
+      <c r="A172" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B172" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C172" s="5" t="s">
+      <c r="C172" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A173" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B173" s="1" t="s">
+      <c r="A173" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B173" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E173" s="1" t="s">
+      <c r="D173" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E173" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A174" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B174" s="1" t="s">
+      <c r="A174" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B174" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D174" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E174" s="1" t="s">
+      <c r="D174" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E174" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A175" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B175" s="1" t="s">
+      <c r="A175" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B175" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D175" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E175" s="1" t="s">
+      <c r="D175" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E175" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A176" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="A176" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B176" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="C176" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="D176" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E176" s="1" t="s">
+      <c r="D176" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E176" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="A177" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B177" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="C177" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D177" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E177" s="1" t="s">
+      <c r="D177" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E177" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B178" s="1" t="s">
+      <c r="A178" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B178" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="C178" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D178" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E178" s="1" t="s">
+      <c r="D178" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E178" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B179" s="1" t="s">
+      <c r="A179" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B179" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="C179" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="D179" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E179" s="1" t="s">
+      <c r="D179" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E179" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B180" s="1" t="s">
+      <c r="A180" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B180" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="C180" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E180" s="1" t="s">
+      <c r="D180" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E180" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B181" s="1" t="s">
+      <c r="A181" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B181" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="C181" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="A182" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="C182" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B183" s="1" t="s">
+      <c r="A183" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B183" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="C183" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="D183" s="1" t="s">
+      <c r="D183" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E183" s="1" t="s">
+      <c r="E183" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B184" s="1" t="s">
+      <c r="A184" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B184" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="C184" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B185" s="1" t="s">
+      <c r="A185" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B185" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B186" s="1" t="s">
+      <c r="A186" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B186" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B187" s="1" t="s">
+      <c r="A187" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B187" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B188" s="1" t="s">
+      <c r="A188" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B188" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D188" s="1" t="s">
+      <c r="D188" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E188" s="1" t="s">
+      <c r="E188" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B189" s="1" t="s">
+      <c r="A189" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B189" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B190" s="1" t="s">
+      <c r="A190" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B190" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B191" s="1" t="s">
+      <c r="A191" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B191" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B192" s="1" t="s">
+      <c r="A192" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B192" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B193" s="1" t="s">
+      <c r="A193" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B193" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B194" s="1" t="s">
+      <c r="A194" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B194" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B195" s="1" t="s">
+      <c r="A195" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B195" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B196" s="1" t="s">
+      <c r="A196" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B196" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B197" s="1" t="s">
+      <c r="A197" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B197" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E197" s="1" t="s">
+      <c r="D197" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E197" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B198" s="1" t="s">
+      <c r="A198" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B198" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E198" s="1" t="s">
+      <c r="D198" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E198" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B199" s="1" t="s">
+      <c r="A199" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B199" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="D199" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E199" s="1" t="s">
+      <c r="D199" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E199" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B200" s="1" t="s">
+      <c r="A200" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B200" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="D200" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="D200" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E200" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B201" s="1" t="s">
+      <c r="A201" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B201" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D201" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E201" s="1" t="s">
+      <c r="D201" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E201" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B202" s="1" t="s">
+      <c r="A202" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B202" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E202" s="1" t="s">
+      <c r="D202" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E202" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B203" s="1" t="s">
+      <c r="A203" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B203" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D203" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E203" s="1" t="s">
+      <c r="D203" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E203" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B204" s="1" t="s">
+      <c r="A204" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B204" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="D204" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E204" s="1" t="s">
+      <c r="D204" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E204" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B205" s="1" t="s">
+      <c r="A205" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B205" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D205" s="1" t="s">
+      <c r="D205" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E205" s="1" t="s">
+      <c r="E205" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B206" s="1" t="s">
+      <c r="A206" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B206" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D206" s="1" t="s">
+      <c r="D206" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E206" s="1" t="s">
+      <c r="E206" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B207" s="1" t="s">
+      <c r="A207" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B207" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D207" s="1" t="s">
+      <c r="D207" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E207" s="1" t="s">
+      <c r="E207" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A208" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B208" s="1" t="s">
+      <c r="A208" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B208" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D208" s="1" t="s">
+      <c r="D208" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E208" s="1" t="s">
+      <c r="E208" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A209" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B209" s="1" t="s">
+      <c r="A209" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B209" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C209" s="7" t="s">
+      <c r="C209" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D209" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E209" s="1" t="s">
+      <c r="D209" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E209" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A210" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B210" s="1" t="s">
+      <c r="A210" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B210" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C210" s="7" t="s">
+      <c r="C210" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D210" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E210" s="1" t="s">
+      <c r="D210" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E210" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B211" s="1" t="s">
+      <c r="A211" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B211" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C211" s="7" t="s">
+      <c r="C211" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D211" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E211" s="1" t="s">
+      <c r="D211" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E211" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A212" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B212" s="1" t="s">
+      <c r="A212" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B212" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C212" s="7" t="s">
+      <c r="C212" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D212" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E212" s="1" t="s">
+      <c r="D212" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E212" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B213" s="1" t="s">
+      <c r="A213" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B213" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C213" s="7" t="s">
+      <c r="C213" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D213" s="1" t="s">
+      <c r="D213" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B214" s="1" t="s">
+      <c r="A214" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B214" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C214" s="7" t="s">
+      <c r="C214" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="D214" s="1" t="s">
+      <c r="D214" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E214" s="1" t="s">
+      <c r="E214" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A215" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B215" s="1" t="s">
+      <c r="A215" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B215" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C215" s="7" t="s">
+      <c r="C215" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D215" s="1" t="s">
+      <c r="D215" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A216" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B216" s="1" t="s">
+      <c r="A216" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B216" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="D216" s="1" t="s">
+      <c r="D216" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B217" s="1" t="s">
+      <c r="A217" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B217" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C217" s="7" t="s">
+      <c r="C217" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="D217" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A218" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B218" s="1" t="s">
+      <c r="A218" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B218" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C218" s="7" t="s">
+      <c r="C218" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="D218" s="1" t="s">
+      <c r="D218" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B219" s="1" t="s">
+      <c r="A219" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C219" s="7" t="s">
+      <c r="C219" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D219" s="1" t="s">
+      <c r="D219" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E219" s="1" t="s">
+      <c r="E219" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B220" s="1" t="s">
+      <c r="A220" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B220" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C220" s="7" t="s">
+      <c r="C220" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D220" s="1" t="s">
+      <c r="D220" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="E220" s="1" t="s">
+      <c r="E220" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B221" s="1" t="s">
+      <c r="A221" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B221" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C221" s="7" t="s">
+      <c r="C221" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E221" s="1" t="s">
+      <c r="D221" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E221" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A222" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B222" s="1" t="s">
+      <c r="A222" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B222" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C222" s="7" t="s">
+      <c r="C222" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E222" s="1" t="s">
+      <c r="D222" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E222" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A223" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B223" s="1" t="s">
+      <c r="A223" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B223" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C223" s="7" t="s">
+      <c r="C223" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E223" s="1" t="s">
+      <c r="D223" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E223" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A224" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B224" s="1" t="s">
+      <c r="A224" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B224" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C224" s="7" t="s">
+      <c r="C224" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E224" s="1" t="s">
+      <c r="D224" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E224" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B225" s="1" t="s">
+      <c r="A225" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B225" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C225" s="7" t="s">
+      <c r="C225" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E225" s="1" t="s">
+      <c r="D225" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E225" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A226" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B226" s="1" t="s">
+      <c r="A226" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B226" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C226" s="7" t="s">
+      <c r="C226" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E226" s="1" t="s">
+      <c r="D226" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E226" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B227" s="1" t="s">
+      <c r="A227" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B227" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C227" s="7" t="s">
+      <c r="C227" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E227" s="1" t="s">
+      <c r="D227" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E227" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A228" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B228" s="1" t="s">
+      <c r="A228" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B228" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C228" s="7" t="s">
+      <c r="C228" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E228" s="1" t="s">
+      <c r="D228" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E228" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A229" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B229" s="1" t="s">
+      <c r="A229" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B229" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C229" s="7" t="s">
+      <c r="C229" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="D229" s="1" t="s">
+      <c r="D229" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E229" s="1" t="s">
+      <c r="E229" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A230" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B230" s="1" t="s">
+      <c r="A230" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B230" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C230" s="7" t="s">
+      <c r="C230" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D230" s="1" t="s">
+      <c r="D230" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E230" s="1" t="s">
+      <c r="E230" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B231" s="1" t="s">
+      <c r="A231" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B231" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="D231" s="1" t="s">
+      <c r="D231" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E231" s="1" t="s">
+      <c r="E231" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B232" s="1" t="s">
+      <c r="A232" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B232" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D232" s="1" t="s">
+      <c r="D232" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E232" s="1" t="s">
+      <c r="E232" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B233" s="1" t="s">
+      <c r="A233" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B233" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C233" s="7" t="s">
+      <c r="C233" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E233" s="1" t="s">
+      <c r="D233" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E233" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A234" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B234" s="1" t="s">
+      <c r="A234" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B234" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C234" s="7" t="s">
+      <c r="C234" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E234" s="1" t="s">
+      <c r="D234" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E234" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A235" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B235" s="1" t="s">
+      <c r="A235" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B235" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C235" s="7" t="s">
+      <c r="C235" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E235" s="1" t="s">
+      <c r="D235" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E235" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B236" s="1" t="s">
+      <c r="A236" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B236" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C236" s="7" t="s">
+      <c r="C236" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E236" s="1" t="s">
+      <c r="D236" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E236" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B237" s="1" t="s">
+      <c r="A237" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B237" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C237" s="7" t="s">
+      <c r="C237" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="D237" s="1" t="s">
+      <c r="D237" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E237" s="1" t="s">
+      <c r="E237" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B238" s="1" t="s">
+      <c r="A238" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B238" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="C238" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="D238" s="1" t="s">
+      <c r="D238" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="E238" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A239" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B239" s="1" t="s">
+      <c r="A239" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B239" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="C239" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="D239" s="1" t="s">
+      <c r="D239" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="E239" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A240" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B240" s="1" t="s">
+      <c r="A240" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B240" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="C240" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D240" s="1" t="s">
+      <c r="D240" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E240" s="1" t="s">
+      <c r="E240" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A241" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B241" s="1" t="s">
+      <c r="A241" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B241" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="C241" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E241" s="1" t="s">
+      <c r="D241" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E241" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B242" s="1" t="s">
+      <c r="A242" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B242" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E242" s="1" t="s">
+      <c r="D242" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E242" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B243" s="1" t="s">
+      <c r="A243" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B243" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="C243" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E243" s="1" t="s">
+      <c r="D243" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E243" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A244" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B244" s="1" t="s">
+      <c r="A244" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B244" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C244" s="7" t="s">
+      <c r="C244" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E244" s="1" t="s">
+      <c r="D244" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E244" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A245" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B245" s="1" t="s">
+      <c r="A245" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B245" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C245" s="7" t="s">
+      <c r="C245" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E245" s="1" t="s">
+      <c r="D245" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E245" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A246" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B246" s="1" t="s">
+      <c r="A246" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B246" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C246" s="7" t="s">
+      <c r="C246" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E246" s="1" t="s">
+      <c r="D246" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E246" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B247" s="1" t="s">
+      <c r="A247" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B247" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C247" s="7" t="s">
+      <c r="C247" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E247" s="1" t="s">
+      <c r="D247" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E247" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="B248" s="1" t="s">
+      <c r="A248" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B248" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C248" s="7" t="s">
+      <c r="C248" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E248" s="1" t="s">
+      <c r="D248" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E248" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E249" s="1" t="s">
+      <c r="A249" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B249" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C249" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D249" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E249" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A250" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E250" s="1" t="s">
+      <c r="A250" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B250" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C250" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D250" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E250" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E251" s="1" t="s">
+      <c r="A251" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B251" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C251" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D251" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E251" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A252" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E252" s="1" t="s">
+      <c r="A252" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B252" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="C252" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="D252" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E252" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A253" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E253" s="1" t="s">
+      <c r="A253" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B253" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="C253" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D253" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E253" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A254" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E254" s="1" t="s">
+      <c r="A254" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B254" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="C254" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D254" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E254" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E255" s="1" t="s">
+      <c r="A255" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B255" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="C255" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D255" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E255" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A256" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E256" s="1" t="s">
+      <c r="A256" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E256" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A257" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E257" s="1" t="s">
+      <c r="A257" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B257" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C257" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D257" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E257" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E258" s="1" t="s">
+      <c r="A258" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E258" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E259" s="1" t="s">
+      <c r="A259" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B259" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D259" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E259" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E260" s="1" t="s">
+      <c r="A260" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B260" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D260" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E260" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E261" s="1" t="s">
+      <c r="A261" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B261" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D261" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E261" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E262" s="1" t="s">
+      <c r="A262" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B262" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D262" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E262" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E263" s="1" t="s">
+      <c r="A263" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B263" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D263" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E263" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E264" s="1" t="s">
+      <c r="A264" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B264" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D264" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E264" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E265" s="1" t="s">
+      <c r="A265" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B265" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D265" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="E265" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E266" s="1" t="s">
+      <c r="A266" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B266" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="D266" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E266" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E267" s="1" t="s">
+      <c r="A267" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B267" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="D267" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E267" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E268" s="1" t="s">
+      <c r="A268" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B268" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D268" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E268" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E269" s="1" t="s">
+      <c r="A269" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B269" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D269" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E269" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E270" s="1" t="s">
+      <c r="A270" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B270" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D270" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E270" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E271" s="1" t="s">
+      <c r="A271" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B271" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="D271" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E271" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E272" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="273" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E273" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="274" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E274" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="275" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E275" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="276" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E276" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="277" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E277" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="278" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E278" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="279" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E279" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="280" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E280" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="281" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E281" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="282" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E282" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="283" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E283" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="284" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E284" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="285" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E285" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="286" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E286" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="287" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E287" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="288" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E288" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="289" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E289" s="1" t="s">
-        <v>114</v>
-      </c>
+      <c r="A272" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B272" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D272" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E272" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B273" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D273" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E273" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B274" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D274" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E274" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B275" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D275" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="E275" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B276" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D276" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E276" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B277" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D277" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E277" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B278" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D278" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E278" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B279" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D279" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E279" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D280" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E280" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D281" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E281" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B282" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="D282" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E282" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B283" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="D283" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E283" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B284" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D284" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E284" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B285" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D285" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E285" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B286" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D286" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E286" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B287" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="D287" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E287" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B288" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D288" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E288" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B289" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="D289" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E289" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B290" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D290" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E290" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B291" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D291" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E291" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B292" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="D292" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E292" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B293" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="D293" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="E293" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B294" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D294" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E294" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B295" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="D295" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E295" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="D296" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E296" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B297" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D297" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E297" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B298" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="D298" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E298" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B299" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="D299" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E299" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B300" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="D300" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="E300" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="D301" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E301" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D302" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="E302" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="E303" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D304" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E304" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B305" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D305" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E305" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D306" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E306" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D307" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E307" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D308" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E308" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B309" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D309" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="E309" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D310" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E310" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D311" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E311" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B312" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D312" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="E312" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E313" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D314" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="E314" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="D315" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="E315" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B316" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E316" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="D317" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E317" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E318" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="D319" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E319" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="D320" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="E320" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E321" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="D322" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E322" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D323" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="E323" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D324" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="E324" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D325" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E325" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="D326" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E326" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D327" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="E327" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="D328" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E328" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E329" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E330" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E331" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E332" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E333" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E334" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E335" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E336" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E337" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E338" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E339" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E340" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="4"/>
+      <c r="E341" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="4"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="4"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
